--- a/D13/D13_COMUNI.xlsx
+++ b/D13/D13_COMUNI.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZY\ODCEC_22-23\D12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZY\ODCEC_22-23\D13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FABE8DF1-8F15-4016-BC99-32CFE30F34EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F278FAC-9FEC-4778-A273-277D62CEA782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="1740" yWindow="570" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COMUNI" sheetId="4" r:id="rId1"/>
     <sheet name="PROVINCE" sheetId="2" r:id="rId2"/>
-    <sheet name="COMUNI2" sheetId="5" r:id="rId3"/>
-    <sheet name="Foglio6" sheetId="7" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
   <si>
     <t>COMUNE</t>
   </si>
@@ -142,17 +141,17 @@
     <t>PROVINCIA_COD</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>PROVINCIA_ID</t>
+    <t>Arese</t>
+  </si>
+  <si>
+    <t>Milano (Doppio)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,8 +286,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +484,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +712,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -704,8 +723,12 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1060,21 +1083,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1105,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -1090,7 +1113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1098,7 +1121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1106,7 +1129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1114,7 +1137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -1130,7 +1153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1138,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
@@ -1146,7 +1169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1154,7 +1177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1162,7 +1185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1170,7 +1193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -1187,21 +1210,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
@@ -1209,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1217,7 +1240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1233,7 +1256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
@@ -1241,7 +1264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -1249,7 +1272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
@@ -1257,7 +1280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -1265,7 +1288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -1273,7 +1296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
@@ -1281,7 +1304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -1289,7 +1312,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
@@ -1297,7 +1320,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
@@ -1311,371 +1334,661 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E96CF08-E41F-40E5-833A-B893FE091A87}">
+  <dimension ref="A2:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="L4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="L5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="I8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="L20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="E21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="L21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="I23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="I26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="C27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="I27" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="I28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="I29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="I30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
+      <c r="J30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:F14">
+    <sortCondition ref="E3:E14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="8">
-        <v>9</v>
-      </c>
-      <c r="H4" s="8">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8">
-        <v>6</v>
-      </c>
-      <c r="H5" s="8">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="8">
-        <v>10</v>
-      </c>
-      <c r="H6" s="8">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="8">
-        <v>11</v>
-      </c>
-      <c r="H7" s="8">
-        <v>5</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="8">
-        <v>5</v>
-      </c>
-      <c r="H8" s="8">
-        <v>6</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="8">
-        <v>3</v>
-      </c>
-      <c r="H9" s="8">
-        <v>7</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="8">
-        <v>7</v>
-      </c>
-      <c r="H10" s="8">
-        <v>8</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8">
-        <v>9</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="8">
-        <v>4</v>
-      </c>
-      <c r="H12" s="8">
-        <v>10</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="8">
-        <v>8</v>
-      </c>
-      <c r="H13" s="8">
-        <v>11</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="9">
-        <v>12</v>
-      </c>
-      <c r="H14" s="9">
-        <v>12</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>